--- a/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
+++ b/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,12 @@
     <t>获取物品id</t>
   </si>
   <si>
+    <t>稀有物品概率</t>
+  </si>
+  <si>
+    <t>稀有物品Id</t>
+  </si>
+  <si>
     <t>生产时间，分钟</t>
   </si>
   <si>
@@ -71,6 +77,12 @@
   </si>
   <si>
     <t>ItemId</t>
+  </si>
+  <si>
+    <t>SpecialRate</t>
+  </si>
+  <si>
+    <t>SpecialItemId</t>
   </si>
   <si>
     <t>ProductTime</t>
@@ -113,8 +125,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -132,6 +144,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -139,27 +196,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -168,7 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,93 +252,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,19 +303,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,163 +447,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,6 +512,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -515,11 +545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,17 +575,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,8 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,36 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,12 +1111,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1113,14 +1125,14 @@
     <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="5" max="7" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,97 +1160,121 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -1247,27 +1283,30 @@
         <v>1010</v>
       </c>
       <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>50</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -1276,27 +1315,30 @@
         <v>1013</v>
       </c>
       <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>50</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -1305,27 +1347,33 @@
         <v>1016</v>
       </c>
       <c r="F7" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1021</v>
+      </c>
+      <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>30</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -1334,20 +1382,23 @@
         <v>1017</v>
       </c>
       <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>30</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>3</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>800</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F15">
+  <sortState ref="A3:H15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
+++ b/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="30850" windowHeight="12110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,16 +144,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +221,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,107 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,11 +512,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,17 +566,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,40 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,23 +1116,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.3727272727273" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7545454545455" style="2" customWidth="1"/>
+    <col min="5" max="7" width="8.87272727272727" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.7545454545455" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>

--- a/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
+++ b/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30850" windowHeight="12110"/>
+    <workbookView windowWidth="28500" windowHeight="18140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>ID</t>
   </si>
@@ -145,68 +145,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,8 +173,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,9 +183,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,6 +243,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -273,16 +274,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,19 +303,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,25 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,133 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,36 +508,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +536,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -585,16 +570,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,16 +594,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
@@ -1285,6 +1285,9 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" s="2">
         <v>3</v>
       </c>
@@ -1317,6 +1320,9 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
       <c r="H6" s="2">
         <v>3</v>
       </c>
@@ -1382,6 +1388,9 @@
         <v>1017</v>
       </c>
       <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">

--- a/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
+++ b/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28500" windowHeight="18140"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -123,9 +123,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -144,6 +144,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -151,10 +187,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,15 +251,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,22 +267,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,83 +282,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,19 +303,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,163 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,8 +515,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,8 +554,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,7 +579,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,31 +609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,23 +1116,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.7545454545455" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.87272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7583333333333" style="2" customWidth="1"/>
+    <col min="5" max="7" width="8.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.3727272727273" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.7545454545455" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.7583333333333" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2">
         <v>5</v>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
@@ -1359,10 +1359,10 @@
         <v>1021</v>
       </c>
       <c r="H7" s="2">
+        <v>60</v>
+      </c>
+      <c r="I7" s="2">
         <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>30</v>
       </c>
       <c r="J7" s="2">
         <v>3</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
+        <v>60</v>
+      </c>
+      <c r="I8" s="2">
         <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>30</v>
       </c>
       <c r="J8" s="2">
         <v>3</v>

--- a/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
+++ b/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
@@ -124,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -144,6 +144,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -153,6 +206,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -160,12 +242,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -173,41 +256,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,8 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,60 +283,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,31 +303,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,73 +435,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,67 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,62 +515,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +545,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -609,16 +594,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2">
         <v>5</v>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
@@ -1359,7 +1359,7 @@
         <v>1021</v>
       </c>
       <c r="H7" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>

--- a/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
+++ b/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
@@ -146,12 +146,103 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -160,7 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,107 +273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,19 +303,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,61 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,97 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +512,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -531,21 +546,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -556,15 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,17 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,16 +589,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,16 +627,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,115 +645,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
         <v>20</v>
       </c>
-      <c r="I5" s="2">
-        <v>15</v>
-      </c>
       <c r="J5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
         <v>80</v>
@@ -1324,13 +1324,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
         <v>20</v>
       </c>
-      <c r="I6" s="2">
-        <v>15</v>
-      </c>
       <c r="J6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
         <v>150</v>
@@ -1359,13 +1359,13 @@
         <v>1021</v>
       </c>
       <c r="H7" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
         <v>1000</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
         <v>800</v>

--- a/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
+++ b/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
@@ -40,7 +40,7 @@
     <t>稀有物品Id</t>
   </si>
   <si>
-    <t>生产时间，分钟</t>
+    <t>生产时间，秒</t>
   </si>
   <si>
     <t>存储最大数量</t>
@@ -144,19 +144,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,12 +206,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -182,13 +220,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -196,8 +251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,78 +274,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,26 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,31 +552,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,11 +588,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="I5" s="2">
         <v>20</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="I6" s="2">
         <v>20</v>
@@ -1359,7 +1359,7 @@
         <v>1021</v>
       </c>
       <c r="H7" s="2">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="I8" s="2">
         <v>10</v>

--- a/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
+++ b/Tables/Sources/gameplay/Collect/CollectConfig.xlsx
@@ -124,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -144,6 +144,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -151,11 +212,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,31 +236,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,82 +287,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -303,181 +303,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,25 +512,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -547,6 +534,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,10 +570,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -582,15 +591,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I5" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I6" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1359,10 +1359,10 @@
         <v>1021</v>
       </c>
       <c r="H7" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
